--- a/translation/xlsx/_tsum_021.xlsx
+++ b/translation/xlsx/_tsum_021.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="2880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="2882">
   <si>
     <t>actor</t>
   </si>
@@ -4017,6 +4017,9 @@
     <t>\"I feel sorry for you, Keiichi-kun.</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;size=-6&gt;\"불쌍한 케이이치 군. </t>
+  </si>
+  <si>
     <t xml:space="preserve">\"불쌍한 케이이치 군. </t>
   </si>
   <si>
@@ -5013,13 +5016,16 @@
     <t>So, the one you read in the scrapbooks was just a new story she made up recently!</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;size=-6&gt;레나가 읽은 스크랩북은 타카노 씨가 자랑스럽게 지어낸 이야기의 최신작에 불과해! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">그러니까 레나가 읽은 스크랩북은 타카노씨가 새롭게 꾸며낸 이야기에 불과해! </t>
+  </si>
+  <si>
+    <t>그러니까, 레나가 읽은 스크랩첩은, 타카노씨 자랑의 최신작에 지나지 않아!</t>
+  </si>
+  <si>
     <t xml:space="preserve">레나가 읽은 스크랩북은 타카노 씨가 자랑스럽게 지어낸 이야기의 최신작에 불과해! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">그러니까 레나가 읽은 스크랩북은 타카노씨가 새롭게 꾸며낸 이야기에 불과해! </t>
-  </si>
-  <si>
-    <t>그러니까, 레나가 읽은 스크랩첩은, 타카노씨 자랑의 최신작에 지나지 않아!</t>
   </si>
   <si>
     <t xml:space="preserve">　ほら、あの人って人をからかうみたいなところがあるだろ?</t>
@@ -15353,111 +15359,111 @@
       <c r="C263" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="D263" s="20" t="s">
+      <c r="D263" s="6" t="s">
         <v>1333</v>
       </c>
       <c r="G263" s="3"/>
       <c r="H263" s="7"/>
       <c r="I263" s="8" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="J263" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K263" s="8" t="s">
         <v>1334</v>
-      </c>
-      <c r="K263" s="8" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="5"/>
       <c r="B264" s="16" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G264" s="3"/>
       <c r="H264" s="7"/>
       <c r="I264" s="8" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="K264" s="9" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="5"/>
       <c r="B265" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G265" s="3"/>
       <c r="H265" s="7"/>
       <c r="I265" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J265" s="15" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K265" s="9" t="s">
         <v>1344</v>
-      </c>
-      <c r="J265" s="15" t="s">
-        <v>1345</v>
-      </c>
-      <c r="K265" s="9" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="5"/>
       <c r="B266" s="15" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G266" s="3"/>
       <c r="H266" s="7"/>
       <c r="I266" s="8" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K266" s="9" t="s">
         <v>1349</v>
-      </c>
-      <c r="J266" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="K266" s="9" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="5"/>
       <c r="B267" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G267" s="3"/>
       <c r="H267" s="7"/>
       <c r="I267" s="8" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="K267" s="9" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
@@ -15465,162 +15471,162 @@
         <v>450</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G268" s="3"/>
       <c r="H268" s="7"/>
       <c r="I268" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K268" s="9" t="s">
         <v>1360</v>
-      </c>
-      <c r="J268" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="K268" s="9" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="5"/>
       <c r="B269" s="16" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G269" s="3"/>
       <c r="H269" s="7"/>
       <c r="I269" s="8" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K269" s="9" t="s">
         <v>1365</v>
-      </c>
-      <c r="J269" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="K269" s="9" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="5"/>
       <c r="B270" s="15" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="G270" s="3"/>
       <c r="H270" s="7"/>
       <c r="I270" s="8" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="K270" s="9" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="5"/>
       <c r="B271" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G271" s="3"/>
       <c r="H271" s="7"/>
       <c r="I271" s="8" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="J271" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K271" s="8" t="s">
         <v>1376</v>
-      </c>
-      <c r="K271" s="8" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="5"/>
       <c r="B272" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G272" s="3"/>
       <c r="H272" s="7"/>
       <c r="I272" s="8" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="K272" s="9" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="5"/>
       <c r="B273" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G273" s="3"/>
       <c r="H273" s="7"/>
       <c r="I273" s="8" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="J273" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K273" s="8" t="s">
         <v>1386</v>
-      </c>
-      <c r="K273" s="8" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="5"/>
       <c r="B274" s="1" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G274" s="3"/>
       <c r="H274" s="7"/>
       <c r="I274" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K274" s="9" t="s">
         <v>1390</v>
-      </c>
-      <c r="J274" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K274" s="9" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
@@ -15628,47 +15634,47 @@
         <v>450</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D275" s="23" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G275" s="3"/>
       <c r="H275" s="7"/>
       <c r="I275" s="8" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="K275" s="24" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="5"/>
       <c r="B276" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G276" s="3"/>
       <c r="H276" s="7"/>
       <c r="I276" s="8" t="s">
+        <v>1402</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K276" s="9" t="s">
         <v>1401</v>
-      </c>
-      <c r="J276" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="K276" s="9" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
@@ -15676,70 +15682,70 @@
         <v>428</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G277" s="3"/>
       <c r="H277" s="7"/>
       <c r="I277" s="8" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="J277" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K277" s="8" t="s">
         <v>1406</v>
-      </c>
-      <c r="K277" s="8" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="5"/>
       <c r="B278" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G278" s="3"/>
       <c r="H278" s="7"/>
       <c r="I278" s="8" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="J278" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K278" s="8" t="s">
         <v>1411</v>
-      </c>
-      <c r="K278" s="8" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="5"/>
       <c r="B279" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G279" s="3"/>
       <c r="H279" s="7"/>
       <c r="I279" s="8" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="J279" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K279" s="8" t="s">
         <v>1415</v>
-      </c>
-      <c r="K279" s="8" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
@@ -15747,93 +15753,93 @@
         <v>450</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G280" s="3"/>
       <c r="H280" s="7"/>
       <c r="I280" s="8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K280" s="9" t="s">
         <v>1419</v>
-      </c>
-      <c r="J280" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="K280" s="9" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="5"/>
       <c r="B281" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="G281" s="3"/>
       <c r="H281" s="7"/>
       <c r="I281" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="K281" s="9" t="s">
         <v>1424</v>
-      </c>
-      <c r="J281" s="1" t="s">
-        <v>1425</v>
-      </c>
-      <c r="K281" s="9" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="5"/>
       <c r="B282" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="G282" s="3"/>
       <c r="H282" s="7"/>
       <c r="I282" s="8" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K282" s="9" t="s">
         <v>1429</v>
-      </c>
-      <c r="J282" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="K282" s="9" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="5"/>
       <c r="B283" s="16" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G283" s="3"/>
       <c r="H283" s="7"/>
       <c r="I283" s="8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K283" s="9" t="s">
         <v>1434</v>
-      </c>
-      <c r="J283" s="1" t="s">
-        <v>1435</v>
-      </c>
-      <c r="K283" s="9" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
@@ -15841,24 +15847,24 @@
         <v>428</v>
       </c>
       <c r="B284" s="16" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G284" s="3"/>
       <c r="H284" s="7"/>
       <c r="I284" s="8" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="K284" s="9" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
@@ -15866,70 +15872,70 @@
         <v>450</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="G285" s="3"/>
       <c r="H285" s="7"/>
       <c r="I285" s="8" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="J285" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K285" s="8" t="s">
         <v>1445</v>
-      </c>
-      <c r="K285" s="8" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="5"/>
       <c r="B286" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="G286" s="3"/>
       <c r="H286" s="7"/>
       <c r="I286" s="8" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="J286" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K286" s="8" t="s">
         <v>1449</v>
-      </c>
-      <c r="K286" s="8" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="5"/>
       <c r="B287" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="G287" s="3"/>
       <c r="H287" s="7"/>
       <c r="I287" s="8" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="J287" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K287" s="9" t="s">
         <v>1453</v>
-      </c>
-      <c r="K287" s="9" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
@@ -15937,208 +15943,208 @@
         <v>450</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="G288" s="3"/>
       <c r="H288" s="7"/>
       <c r="I288" s="8" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K288" s="9" t="s">
         <v>1457</v>
-      </c>
-      <c r="J288" s="1" t="s">
-        <v>1458</v>
-      </c>
-      <c r="K288" s="9" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="5"/>
       <c r="B289" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G289" s="3"/>
       <c r="H289" s="7"/>
       <c r="I289" s="8" t="s">
+        <v>1463</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="K289" s="9" t="s">
         <v>1462</v>
-      </c>
-      <c r="J289" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="K289" s="9" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="5"/>
       <c r="B290" s="16" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D290" s="23" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="G290" s="3"/>
       <c r="H290" s="7"/>
       <c r="I290" s="8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K290" s="24" t="s">
         <v>1467</v>
-      </c>
-      <c r="J290" s="1" t="s">
-        <v>1468</v>
-      </c>
-      <c r="K290" s="24" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="5"/>
       <c r="B291" s="16" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D291" s="26" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="G291" s="3"/>
       <c r="H291" s="7"/>
       <c r="I291" s="27" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K291" s="28" t="s">
         <v>1472</v>
-      </c>
-      <c r="J291" s="1" t="s">
-        <v>1473</v>
-      </c>
-      <c r="K291" s="28" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="5"/>
       <c r="B292" s="16" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D292" s="26" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="G292" s="3"/>
       <c r="H292" s="7"/>
       <c r="I292" s="27" t="s">
+        <v>1478</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K292" s="28" t="s">
         <v>1477</v>
-      </c>
-      <c r="J292" s="1" t="s">
-        <v>1478</v>
-      </c>
-      <c r="K292" s="28" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="5"/>
       <c r="B293" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D293" s="29" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="G293" s="3"/>
       <c r="H293" s="7"/>
       <c r="I293" s="27" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="J293" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K293" s="27" t="s">
         <v>1482</v>
-      </c>
-      <c r="K293" s="27" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="5"/>
       <c r="B294" s="16" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="G294" s="3"/>
       <c r="H294" s="7"/>
       <c r="I294" s="8" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="K294" s="9" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="5"/>
       <c r="B295" s="15" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="G295" s="3"/>
       <c r="H295" s="7"/>
       <c r="I295" s="8" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K295" s="9" t="s">
         <v>1492</v>
-      </c>
-      <c r="J295" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="K295" s="9" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="5"/>
       <c r="B296" s="16" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="G296" s="3"/>
       <c r="H296" s="7"/>
       <c r="I296" s="8" t="s">
+        <v>1498</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="K296" s="9" t="s">
         <v>1497</v>
-      </c>
-      <c r="J296" s="1" t="s">
-        <v>1498</v>
-      </c>
-      <c r="K296" s="9" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
@@ -16146,47 +16152,47 @@
         <v>450</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D297" s="33" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G297" s="3"/>
       <c r="H297" s="7"/>
       <c r="I297" s="8" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="J297" s="15" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K297" s="34" t="s">
         <v>1502</v>
-      </c>
-      <c r="K297" s="34" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="5"/>
       <c r="B298" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="G298" s="3"/>
       <c r="H298" s="7"/>
       <c r="I298" s="8" t="s">
+        <v>1507</v>
+      </c>
+      <c r="J298" s="15" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K298" s="14" t="s">
         <v>1506</v>
-      </c>
-      <c r="J298" s="15" t="s">
-        <v>1507</v>
-      </c>
-      <c r="K298" s="14" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
@@ -16194,24 +16200,24 @@
         <v>450</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="G299" s="3"/>
       <c r="H299" s="7"/>
       <c r="I299" s="8" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K299" s="14" t="s">
         <v>1511</v>
-      </c>
-      <c r="J299" s="1" t="s">
-        <v>1512</v>
-      </c>
-      <c r="K299" s="14" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
@@ -16219,24 +16225,24 @@
         <v>450</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="G300" s="3"/>
       <c r="H300" s="7"/>
       <c r="I300" s="8" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="K300" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
@@ -16244,93 +16250,93 @@
         <v>450</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="G301" s="3"/>
       <c r="H301" s="7"/>
       <c r="I301" s="8" t="s">
+        <v>1523</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K301" s="14" t="s">
         <v>1522</v>
-      </c>
-      <c r="J301" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="K301" s="14" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="5"/>
       <c r="B302" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D302" s="11" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="G302" s="3"/>
       <c r="H302" s="7"/>
       <c r="I302" s="8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K302" s="14" t="s">
         <v>1527</v>
-      </c>
-      <c r="J302" s="1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="K302" s="14" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="5"/>
       <c r="B303" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="G303" s="3"/>
       <c r="H303" s="7"/>
       <c r="I303" s="8" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="K303" s="14" t="s">
         <v>1532</v>
-      </c>
-      <c r="J303" s="1" t="s">
-        <v>1533</v>
-      </c>
-      <c r="K303" s="14" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="5"/>
       <c r="B304" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D304" s="11" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="G304" s="3"/>
       <c r="H304" s="7"/>
       <c r="I304" s="8" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K304" s="14" t="s">
         <v>1537</v>
-      </c>
-      <c r="J304" s="1" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K304" s="14" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
@@ -16338,47 +16344,47 @@
         <v>450</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="G305" s="3"/>
       <c r="H305" s="7"/>
       <c r="I305" s="8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="K305" s="9" t="s">
         <v>1542</v>
-      </c>
-      <c r="J305" s="1" t="s">
-        <v>1543</v>
-      </c>
-      <c r="K305" s="9" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="5"/>
       <c r="B306" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="G306" s="3"/>
       <c r="H306" s="7"/>
       <c r="I306" s="8" t="s">
+        <v>1548</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K306" s="9" t="s">
         <v>1547</v>
-      </c>
-      <c r="J306" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="K306" s="9" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
@@ -16386,116 +16392,116 @@
         <v>450</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="G307" s="3"/>
       <c r="H307" s="7"/>
       <c r="I307" s="8" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="J307" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="K307" s="8" t="s">
         <v>1552</v>
-      </c>
-      <c r="K307" s="8" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="5"/>
       <c r="B308" s="16" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="G308" s="3"/>
       <c r="H308" s="7"/>
       <c r="I308" s="8" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J308" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K308" s="8" t="s">
         <v>1557</v>
-      </c>
-      <c r="K308" s="8" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="5"/>
       <c r="B309" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D309" s="25" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G309" s="3"/>
       <c r="H309" s="7"/>
       <c r="I309" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="J309" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K309" s="1" t="s">
         <v>1562</v>
-      </c>
-      <c r="K309" s="1" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="5"/>
       <c r="B310" s="15" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="G310" s="3"/>
       <c r="H310" s="7"/>
       <c r="I310" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="K310" s="15" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="5"/>
       <c r="B311" s="16" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="G311" s="3"/>
       <c r="H311" s="7"/>
       <c r="I311" s="8" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K311" s="9" t="s">
         <v>1572</v>
-      </c>
-      <c r="J311" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="K311" s="9" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
@@ -16503,24 +16509,24 @@
         <v>428</v>
       </c>
       <c r="B312" s="16" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D312" s="20" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="G312" s="3"/>
       <c r="H312" s="7"/>
       <c r="I312" s="8" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="J312" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K312" s="8" t="s">
         <v>1577</v>
-      </c>
-      <c r="K312" s="8" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
@@ -16528,24 +16534,24 @@
         <v>450</v>
       </c>
       <c r="B313" s="16" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>1123</v>
       </c>
       <c r="D313" s="20" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="G313" s="3"/>
       <c r="H313" s="7"/>
       <c r="I313" s="8" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="J313" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K313" s="8" t="s">
         <v>1580</v>
-      </c>
-      <c r="K313" s="8" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
@@ -16553,185 +16559,185 @@
         <v>428</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="G314" s="3"/>
       <c r="H314" s="7"/>
       <c r="I314" s="8" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="J314" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="K314" s="8" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="5"/>
       <c r="B315" s="16" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="G315" s="3"/>
       <c r="H315" s="7"/>
       <c r="I315" s="8" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="J315" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K315" s="8" t="s">
         <v>1587</v>
-      </c>
-      <c r="K315" s="8" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="5"/>
       <c r="B316" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="G316" s="3"/>
       <c r="H316" s="7"/>
       <c r="I316" s="8" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K316" s="9" t="s">
         <v>1591</v>
-      </c>
-      <c r="J316" s="1" t="s">
-        <v>1592</v>
-      </c>
-      <c r="K316" s="9" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="5"/>
       <c r="B317" s="1" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="G317" s="3"/>
       <c r="H317" s="7"/>
       <c r="I317" s="8" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K317" s="9" t="s">
         <v>1596</v>
-      </c>
-      <c r="J317" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="K317" s="9" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="5"/>
       <c r="B318" s="16" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D318" s="23" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="G318" s="3"/>
       <c r="H318" s="7"/>
       <c r="I318" s="8" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K318" s="24" t="s">
         <v>1601</v>
-      </c>
-      <c r="J318" s="1" t="s">
-        <v>1602</v>
-      </c>
-      <c r="K318" s="24" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="5"/>
       <c r="B319" s="15" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="D319" s="23" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="G319" s="3"/>
       <c r="H319" s="7"/>
       <c r="I319" s="8" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K319" s="24" t="s">
         <v>1606</v>
-      </c>
-      <c r="J319" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="K319" s="24" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="5"/>
       <c r="B320" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="G320" s="3"/>
       <c r="H320" s="7"/>
       <c r="I320" s="8" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K320" s="9" t="s">
         <v>1611</v>
-      </c>
-      <c r="J320" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="K320" s="9" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="5"/>
       <c r="B321" s="1" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D321" s="23" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="G321" s="3"/>
       <c r="H321" s="7"/>
       <c r="I321" s="8" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="K321" s="24" t="s">
         <v>1616</v>
-      </c>
-      <c r="J321" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="K321" s="24" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
@@ -16739,70 +16745,70 @@
         <v>428</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="G322" s="3"/>
       <c r="H322" s="7"/>
       <c r="I322" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K322" s="9" t="s">
         <v>1621</v>
-      </c>
-      <c r="J322" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="K322" s="9" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="5"/>
       <c r="B323" s="16" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="G323" s="3"/>
       <c r="H323" s="7"/>
       <c r="I323" s="8" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K323" s="9" t="s">
         <v>1626</v>
-      </c>
-      <c r="J323" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="K323" s="9" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="5"/>
       <c r="B324" s="16" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="G324" s="3"/>
       <c r="H324" s="7"/>
       <c r="I324" s="8" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="K324" s="9" t="s">
         <v>1631</v>
-      </c>
-      <c r="J324" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="K324" s="9" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
@@ -16810,93 +16816,93 @@
         <v>428</v>
       </c>
       <c r="B325" s="16" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="G325" s="3"/>
       <c r="H325" s="7"/>
       <c r="I325" s="8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="K325" s="9" t="s">
         <v>1636</v>
-      </c>
-      <c r="J325" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="K325" s="9" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="5"/>
       <c r="B326" s="1" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="G326" s="3"/>
       <c r="H326" s="7"/>
       <c r="I326" s="8" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="K326" s="9" t="s">
         <v>1641</v>
-      </c>
-      <c r="J326" s="1" t="s">
-        <v>1642</v>
-      </c>
-      <c r="K326" s="9" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="5"/>
       <c r="B327" s="15" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="G327" s="3"/>
       <c r="H327" s="7"/>
       <c r="I327" s="8" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K327" s="9" t="s">
         <v>1646</v>
-      </c>
-      <c r="J327" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="K327" s="9" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="5"/>
       <c r="B328" s="1" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="G328" s="3"/>
       <c r="H328" s="7"/>
       <c r="I328" s="8" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="K328" s="9" t="s">
         <v>1651</v>
-      </c>
-      <c r="J328" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="K328" s="9" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
@@ -16904,24 +16910,24 @@
         <v>428</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="G329" s="3"/>
       <c r="H329" s="7"/>
       <c r="I329" s="8" t="s">
+        <v>1657</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="K329" s="9" t="s">
         <v>1656</v>
-      </c>
-      <c r="J329" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="K329" s="9" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
@@ -16929,24 +16935,24 @@
         <v>428</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="G330" s="3"/>
       <c r="H330" s="7"/>
       <c r="I330" s="8" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K330" s="9" t="s">
         <v>1661</v>
-      </c>
-      <c r="J330" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="K330" s="9" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
@@ -16954,70 +16960,70 @@
         <v>428</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="G331" s="3"/>
       <c r="H331" s="7"/>
       <c r="I331" s="8" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="K331" s="9" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="5"/>
       <c r="B332" s="1" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="G332" s="3"/>
       <c r="H332" s="7"/>
       <c r="I332" s="8" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="J332" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="K332" s="9" t="s">
         <v>1672</v>
-      </c>
-      <c r="K332" s="9" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="5"/>
       <c r="B333" s="1" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="G333" s="3"/>
       <c r="H333" s="7"/>
       <c r="I333" s="8" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="J333" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K333" s="9" t="s">
         <v>1677</v>
-      </c>
-      <c r="K333" s="9" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
@@ -17025,47 +17031,47 @@
         <v>450</v>
       </c>
       <c r="B334" s="16" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="G334" s="3"/>
       <c r="H334" s="7"/>
       <c r="I334" s="8" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J334" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="K334" s="9" t="s">
         <v>1682</v>
-      </c>
-      <c r="K334" s="9" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="5"/>
       <c r="B335" s="1" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="G335" s="3"/>
       <c r="H335" s="7"/>
       <c r="I335" s="8" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="J335" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="K335" s="9" t="s">
         <v>1687</v>
-      </c>
-      <c r="K335" s="9" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
@@ -17073,47 +17079,47 @@
         <v>450</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="D336" s="20" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="G336" s="3"/>
       <c r="H336" s="7"/>
       <c r="I336" s="8" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="J336" s="1" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="K336" s="8" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="5"/>
       <c r="B337" s="1" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="G337" s="3"/>
       <c r="H337" s="7"/>
       <c r="I337" s="8" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="J337" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K337" s="9" t="s">
         <v>1696</v>
-      </c>
-      <c r="K337" s="9" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
@@ -17121,70 +17127,70 @@
         <v>450</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="D338" s="20" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="G338" s="3"/>
       <c r="H338" s="7"/>
       <c r="I338" s="8" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="J338" s="1" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="K338" s="8" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="5"/>
       <c r="B339" s="1" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="D339" s="20" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="G339" s="3"/>
       <c r="H339" s="7"/>
       <c r="I339" s="8" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="J339" s="1" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="K339" s="8" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="5"/>
       <c r="B340" s="1" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="G340" s="3"/>
       <c r="H340" s="7"/>
       <c r="I340" s="8" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="J340" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K340" s="9" t="s">
         <v>1709</v>
-      </c>
-      <c r="K340" s="9" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
@@ -17192,24 +17198,24 @@
         <v>450</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="D341" s="23" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="G341" s="3"/>
       <c r="H341" s="7"/>
       <c r="I341" s="8" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J341" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="K341" s="24" t="s">
         <v>1714</v>
-      </c>
-      <c r="K341" s="24" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
@@ -17217,116 +17223,116 @@
         <v>428</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="D342" s="20" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="G342" s="3"/>
       <c r="H342" s="7"/>
       <c r="I342" s="8" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="J342" s="1" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="K342" s="8" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="5"/>
       <c r="B343" s="1" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="D343" s="20" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="G343" s="3"/>
       <c r="H343" s="7"/>
       <c r="I343" s="8" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="K343" s="8" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="5"/>
       <c r="B344" s="1" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="D344" s="20" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="G344" s="3"/>
       <c r="H344" s="7"/>
       <c r="I344" s="8" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="K344" s="8" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="5"/>
       <c r="B345" s="1" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="D345" s="20" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="G345" s="3"/>
       <c r="H345" s="7"/>
       <c r="I345" s="8" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="J345" s="1" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="K345" s="8" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="5"/>
       <c r="B346" s="1" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="D346" s="20" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="G346" s="3"/>
       <c r="H346" s="7"/>
       <c r="I346" s="8" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="J346" s="1" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="K346" s="8" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
@@ -17334,93 +17340,93 @@
         <v>428</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="D347" s="20" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="G347" s="3"/>
       <c r="H347" s="7"/>
       <c r="I347" s="8" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="K347" s="8" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="5"/>
       <c r="B348" s="16" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="G348" s="3"/>
       <c r="H348" s="7"/>
       <c r="I348" s="8" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="J348" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K348" s="9" t="s">
         <v>1743</v>
-      </c>
-      <c r="K348" s="9" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="5"/>
       <c r="B349" s="1" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="G349" s="3"/>
       <c r="H349" s="7"/>
       <c r="I349" s="8" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="J349" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="K349" s="9" t="s">
         <v>1748</v>
-      </c>
-      <c r="K349" s="9" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="5"/>
       <c r="B350" s="1" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="G350" s="3"/>
       <c r="H350" s="7"/>
       <c r="I350" s="8" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="J350" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="K350" s="9" t="s">
         <v>1753</v>
-      </c>
-      <c r="K350" s="9" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
@@ -17428,70 +17434,70 @@
         <v>450</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="D351" s="20" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="G351" s="3"/>
       <c r="H351" s="7"/>
       <c r="I351" s="8" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="J351" s="1" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="K351" s="8" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="5"/>
       <c r="B352" s="1" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="G352" s="3"/>
       <c r="H352" s="7"/>
       <c r="I352" s="8" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="J352" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="K352" s="9" t="s">
         <v>1762</v>
-      </c>
-      <c r="K352" s="9" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="5"/>
       <c r="B353" s="16" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="G353" s="3"/>
       <c r="H353" s="7"/>
       <c r="I353" s="8" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J353" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K353" s="14" t="s">
         <v>1767</v>
-      </c>
-      <c r="K353" s="14" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
@@ -17499,70 +17505,70 @@
         <v>428</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="D354" s="20" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="G354" s="3"/>
       <c r="H354" s="7"/>
       <c r="I354" s="8" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="J354" s="1" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="K354" s="8" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="5"/>
       <c r="B355" s="1" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="D355" s="20" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="G355" s="3"/>
       <c r="H355" s="7"/>
       <c r="I355" s="8" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="K355" s="8" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="5"/>
       <c r="B356" s="1" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="D356" s="20" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="G356" s="3"/>
       <c r="H356" s="7"/>
       <c r="I356" s="8" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="J356" s="1" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="K356" s="8" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
@@ -17570,24 +17576,24 @@
         <v>450</v>
       </c>
       <c r="B357" s="16" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="G357" s="3"/>
       <c r="H357" s="7"/>
       <c r="I357" s="8" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="J357" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="K357" s="9" t="s">
         <v>1784</v>
-      </c>
-      <c r="K357" s="9" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
@@ -17595,139 +17601,139 @@
         <v>428</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="D358" s="23" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="G358" s="3"/>
       <c r="H358" s="7"/>
       <c r="I358" s="8" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="J358" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="K358" s="24" t="s">
         <v>1789</v>
-      </c>
-      <c r="K358" s="24" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="5"/>
       <c r="B359" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="D359" s="20" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="G359" s="3"/>
       <c r="H359" s="7"/>
       <c r="I359" s="8" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="K359" s="8" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="5"/>
       <c r="B360" s="1" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="D360" s="20" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="G360" s="3"/>
       <c r="H360" s="7"/>
       <c r="I360" s="8" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="J360" s="1" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="K360" s="8" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="5"/>
       <c r="B361" s="1" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="D361" s="20" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="G361" s="3"/>
       <c r="H361" s="7"/>
       <c r="I361" s="8" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="K361" s="8" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="5"/>
       <c r="B362" s="1" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="D362" s="20" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="G362" s="3"/>
       <c r="H362" s="7"/>
       <c r="I362" s="8" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="K362" s="8" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="5"/>
       <c r="B363" s="1" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="D363" s="20" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="G363" s="3"/>
       <c r="H363" s="7"/>
       <c r="I363" s="8" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="J363" s="1" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="K363" s="8" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1">
@@ -17758,967 +17764,967 @@
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="5"/>
       <c r="B365" s="1" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="G365" s="3"/>
       <c r="H365" s="7"/>
       <c r="I365" s="8" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="J365" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="K365" s="9" t="s">
         <v>1814</v>
-      </c>
-      <c r="K365" s="9" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="5"/>
       <c r="B366" s="16" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="G366" s="3"/>
       <c r="H366" s="7"/>
       <c r="I366" s="8" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J366" s="1" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="K366" s="9" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="5"/>
       <c r="B367" s="1" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="G367" s="3"/>
       <c r="H367" s="7"/>
       <c r="I367" s="8" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="J367" s="1" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="K367" s="9" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="5"/>
       <c r="B368" s="16" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="G368" s="3"/>
       <c r="H368" s="7"/>
       <c r="I368" s="8" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J368" s="1" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="K368" s="9" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="5"/>
       <c r="B369" s="16" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="G369" s="3"/>
       <c r="H369" s="7"/>
       <c r="I369" s="8" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="J369" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="K369" s="9" t="s">
         <v>1833</v>
-      </c>
-      <c r="K369" s="9" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="5"/>
       <c r="B370" s="16" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="G370" s="3"/>
       <c r="H370" s="7"/>
       <c r="I370" s="8" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="J370" s="15" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="K370" s="8" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="5"/>
       <c r="B371" s="16" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="G371" s="3"/>
       <c r="H371" s="7"/>
       <c r="I371" s="8" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J371" s="1" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="K371" s="9" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="5"/>
       <c r="B372" s="1" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="D372" s="20" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="G372" s="3"/>
       <c r="H372" s="7"/>
       <c r="I372" s="8" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="J372" s="1" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="K372" s="8" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="5"/>
       <c r="B373" s="1" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="G373" s="3"/>
       <c r="H373" s="7"/>
       <c r="I373" s="8" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J373" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="K373" s="9" t="s">
         <v>1852</v>
-      </c>
-      <c r="K373" s="9" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="5"/>
       <c r="B374" s="16" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="G374" s="3"/>
       <c r="H374" s="7"/>
       <c r="I374" s="8" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="J374" s="1" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="K374" s="9" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="5"/>
       <c r="B375" s="16" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="D375" s="20" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="G375" s="3"/>
       <c r="H375" s="7"/>
       <c r="I375" s="8" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="J375" s="1" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="K375" s="8" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="5"/>
       <c r="B376" s="15" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="G376" s="3"/>
       <c r="H376" s="7"/>
       <c r="I376" s="8" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="J376" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="K376" s="9" t="s">
         <v>1867</v>
-      </c>
-      <c r="K376" s="9" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="5"/>
       <c r="B377" s="1" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="G377" s="3"/>
       <c r="H377" s="7"/>
       <c r="I377" s="8" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="J377" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="K377" s="9" t="s">
         <v>1872</v>
-      </c>
-      <c r="K377" s="9" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="5"/>
       <c r="B378" s="16" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="G378" s="3"/>
       <c r="H378" s="7"/>
       <c r="I378" s="8" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="K378" s="9" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="5"/>
       <c r="B379" s="16" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="G379" s="3"/>
       <c r="H379" s="7"/>
       <c r="I379" s="8" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="J379" s="1" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="K379" s="9" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="5"/>
       <c r="B380" s="16" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="G380" s="3"/>
       <c r="H380" s="7"/>
       <c r="I380" s="8" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="J380" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K380" s="9" t="s">
         <v>1889</v>
-      </c>
-      <c r="K380" s="9" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="5"/>
       <c r="B381" s="1" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="G381" s="3"/>
       <c r="H381" s="7"/>
       <c r="I381" s="8" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="J381" s="1" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="K381" s="9" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="5"/>
       <c r="B382" s="15" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="G382" s="3"/>
       <c r="H382" s="7"/>
       <c r="I382" s="8" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="J382" s="1" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="K382" s="14" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="5"/>
       <c r="B383" s="16" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="G383" s="3"/>
       <c r="H383" s="7"/>
       <c r="I383" s="8" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="J383" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="K383" s="14" t="s">
         <v>1906</v>
-      </c>
-      <c r="K383" s="14" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="5"/>
       <c r="B384" s="1" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="G384" s="3"/>
       <c r="H384" s="7"/>
       <c r="I384" s="8" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="J384" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="K384" s="9" t="s">
         <v>1911</v>
-      </c>
-      <c r="K384" s="9" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="5"/>
       <c r="B385" s="1" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="G385" s="3"/>
       <c r="H385" s="7"/>
       <c r="I385" s="8" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="K385" s="9" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="5"/>
       <c r="B386" s="16" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="D386" s="11" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="G386" s="3"/>
       <c r="H386" s="7"/>
       <c r="I386" s="8" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="J386" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="K386" s="14" t="s">
         <v>1922</v>
-      </c>
-      <c r="K386" s="14" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="5"/>
       <c r="B387" s="1" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="D387" s="11" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="G387" s="3"/>
       <c r="H387" s="7"/>
       <c r="I387" s="8" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J387" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="K387" s="14" t="s">
         <v>1927</v>
-      </c>
-      <c r="K387" s="14" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="5"/>
       <c r="B388" s="1" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="D388" s="11" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="G388" s="3"/>
       <c r="H388" s="7"/>
       <c r="I388" s="8" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="J388" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="K388" s="14" t="s">
         <v>1932</v>
-      </c>
-      <c r="K388" s="14" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="5"/>
       <c r="B389" s="16" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="D389" s="11" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="G389" s="3"/>
       <c r="H389" s="7"/>
       <c r="I389" s="8" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="J389" s="1" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="K389" s="14" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="5"/>
       <c r="B390" s="15" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="C390" s="15" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="G390" s="3"/>
       <c r="H390" s="7"/>
       <c r="I390" s="8" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="J390" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="K390" s="9" t="s">
         <v>1943</v>
-      </c>
-      <c r="K390" s="9" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="5"/>
       <c r="B391" s="1" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="D391" s="20" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="G391" s="3"/>
       <c r="H391" s="7"/>
       <c r="I391" s="8" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="J391" s="1" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="K391" s="8" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="5"/>
       <c r="B392" s="1" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="G392" s="3"/>
       <c r="H392" s="7"/>
       <c r="I392" s="8" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="J392" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="K392" s="9" t="s">
         <v>1952</v>
-      </c>
-      <c r="K392" s="9" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="5"/>
       <c r="B393" s="1" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="G393" s="3"/>
       <c r="H393" s="7"/>
       <c r="I393" s="8" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="J393" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="K393" s="9" t="s">
         <v>1957</v>
-      </c>
-      <c r="K393" s="9" t="s">
-        <v>1955</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="5"/>
       <c r="B394" s="1" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="G394" s="3"/>
       <c r="H394" s="7"/>
       <c r="I394" s="8" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="J394" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="K394" s="9" t="s">
         <v>1962</v>
-      </c>
-      <c r="K394" s="9" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="5"/>
       <c r="B395" s="1" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="G395" s="3"/>
       <c r="H395" s="7"/>
       <c r="I395" s="8" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="J395" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="K395" s="9" t="s">
         <v>1967</v>
-      </c>
-      <c r="K395" s="9" t="s">
-        <v>1965</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="5"/>
       <c r="B396" s="1" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="G396" s="3"/>
       <c r="H396" s="7"/>
       <c r="I396" s="8" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="J396" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="K396" s="9" t="s">
         <v>1972</v>
-      </c>
-      <c r="K396" s="9" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="5"/>
       <c r="B397" s="1" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="G397" s="3"/>
       <c r="H397" s="7"/>
       <c r="I397" s="8" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="J397" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="K397" s="9" t="s">
         <v>1977</v>
-      </c>
-      <c r="K397" s="9" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="5"/>
       <c r="B398" s="16" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="G398" s="3"/>
       <c r="H398" s="7"/>
       <c r="I398" s="8" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="J398" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="K398" s="9" t="s">
         <v>1982</v>
-      </c>
-      <c r="K398" s="9" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="5"/>
       <c r="B399" s="1" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="G399" s="3"/>
       <c r="H399" s="7"/>
       <c r="I399" s="8" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="J399" s="1" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="K399" s="8" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="5"/>
       <c r="B400" s="1" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="D400" s="20" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G400" s="3"/>
       <c r="H400" s="7"/>
       <c r="I400" s="8" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="J400" s="1" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="K400" s="8" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="5"/>
       <c r="B401" s="1" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="D401" s="20" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G401" s="3"/>
       <c r="H401" s="7"/>
       <c r="I401" s="8" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="J401" s="1" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="K401" s="8" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="5"/>
       <c r="B402" s="1" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D402" s="20" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G402" s="3"/>
       <c r="H402" s="7"/>
       <c r="I402" s="8" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="J402" s="1" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="K402" s="8" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="5"/>
       <c r="B403" s="1" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G403" s="3"/>
       <c r="H403" s="7"/>
       <c r="I403" s="8" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="J403" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="K403" s="9" t="s">
         <v>2004</v>
-      </c>
-      <c r="K403" s="9" t="s">
-        <v>2002</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="5"/>
       <c r="B404" s="16" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D404" s="20" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G404" s="3"/>
       <c r="H404" s="7"/>
       <c r="I404" s="8" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="J404" s="1" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="K404" s="8" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="5"/>
       <c r="B405" s="1" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D405" s="20" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G405" s="3"/>
       <c r="H405" s="7"/>
       <c r="I405" s="8" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="J405" s="1" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="K405" s="8" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="5"/>
       <c r="B406" s="1" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D406" s="20" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G406" s="3"/>
       <c r="H406" s="7"/>
       <c r="I406" s="8" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="J406" s="1" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="K406" s="8" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1">
@@ -18726,24 +18732,24 @@
         <v>428</v>
       </c>
       <c r="B407" s="16" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D407" s="20" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G407" s="3"/>
       <c r="H407" s="7"/>
       <c r="I407" s="8" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J407" s="1" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="K407" s="8" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1">
@@ -18751,47 +18757,47 @@
         <v>450</v>
       </c>
       <c r="B408" s="16" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D408" s="20" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="G408" s="3"/>
       <c r="H408" s="7"/>
       <c r="I408" s="8" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="J408" s="1" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="K408" s="8" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="5"/>
       <c r="B409" s="1" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="G409" s="3"/>
       <c r="H409" s="7"/>
       <c r="I409" s="8" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="J409" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K409" s="9" t="s">
         <v>2029</v>
-      </c>
-      <c r="K409" s="9" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="410" ht="15.75" customHeight="1">
@@ -18799,70 +18805,70 @@
         <v>450</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="G410" s="3"/>
       <c r="H410" s="7"/>
       <c r="I410" s="8" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="J410" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="K410" s="9" t="s">
         <v>2034</v>
-      </c>
-      <c r="K410" s="9" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="5"/>
       <c r="B411" s="1" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="D411" s="20" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="G411" s="3"/>
       <c r="H411" s="35"/>
       <c r="I411" s="8" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="J411" s="1" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="K411" s="8" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="5"/>
       <c r="B412" s="16" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="D412" s="20" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="G412" s="3"/>
       <c r="H412" s="7"/>
       <c r="I412" s="8" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="J412" s="1" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="K412" s="8" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1">
@@ -18870,24 +18876,24 @@
         <v>450</v>
       </c>
       <c r="B413" s="16" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="G413" s="3"/>
       <c r="H413" s="7"/>
       <c r="I413" s="8" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="J413" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K413" s="9" t="s">
         <v>2047</v>
-      </c>
-      <c r="K413" s="9" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1">
@@ -18895,116 +18901,116 @@
         <v>428</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="G414" s="3"/>
       <c r="H414" s="7"/>
       <c r="I414" s="8" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="J414" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="K414" s="9" t="s">
         <v>2052</v>
-      </c>
-      <c r="K414" s="9" t="s">
-        <v>2050</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="5"/>
       <c r="B415" s="1" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="D415" s="20" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="G415" s="3"/>
       <c r="H415" s="7"/>
       <c r="I415" s="8" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="J415" s="1" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="K415" s="8" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="5"/>
       <c r="B416" s="1" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="D416" s="23" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="G416" s="12"/>
       <c r="H416" s="7"/>
       <c r="I416" s="8" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="J416" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="K416" s="24" t="s">
         <v>2061</v>
-      </c>
-      <c r="K416" s="24" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="5"/>
       <c r="B417" s="1" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="D417" s="20" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="G417" s="3"/>
       <c r="H417" s="7"/>
       <c r="I417" s="8" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="J417" s="1" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="K417" s="8" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="5"/>
       <c r="B418" s="1" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="D418" s="20" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="G418" s="12"/>
       <c r="H418" s="7"/>
       <c r="I418" s="8" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="J418" s="1" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="K418" s="8" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="419" ht="15.75" customHeight="1">
@@ -19012,24 +19018,24 @@
         <v>450</v>
       </c>
       <c r="B419" s="16" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="D419" s="25" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="G419" s="3"/>
       <c r="H419" s="7"/>
       <c r="I419" s="1" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="J419" s="1" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="K419" s="15" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1">
@@ -19037,47 +19043,47 @@
         <v>450</v>
       </c>
       <c r="B420" s="16" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="D420" s="20" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="G420" s="3"/>
       <c r="H420" s="7"/>
       <c r="I420" s="8" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="J420" s="1" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="K420" s="8" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="5"/>
       <c r="B421" s="1" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="D421" s="20" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="G421" s="3"/>
       <c r="H421" s="7"/>
       <c r="I421" s="8" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="J421" s="1" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="K421" s="8" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1">
@@ -19085,24 +19091,24 @@
         <v>428</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="D422" s="20" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="G422" s="3"/>
       <c r="H422" s="7"/>
       <c r="I422" s="8" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="J422" s="1" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="K422" s="8" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1">
@@ -19110,24 +19116,24 @@
         <v>450</v>
       </c>
       <c r="B423" s="16" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="D423" s="20" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="G423" s="3"/>
       <c r="H423" s="7"/>
       <c r="I423" s="8" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="J423" s="1" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="K423" s="8" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="424" ht="15.75" customHeight="1">
@@ -19135,47 +19141,47 @@
         <v>428</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="D424" s="20" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="G424" s="3"/>
       <c r="H424" s="7"/>
       <c r="I424" s="8" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="J424" s="1" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="K424" s="8" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="5"/>
       <c r="B425" s="1" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D425" s="20" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="G425" s="3"/>
       <c r="H425" s="7"/>
       <c r="I425" s="8" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="J425" s="1" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="K425" s="8" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1">
@@ -19183,24 +19189,24 @@
         <v>450</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="D426" s="20" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="G426" s="3"/>
       <c r="H426" s="7"/>
       <c r="I426" s="8" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="J426" s="1" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="K426" s="8" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1">
@@ -19208,24 +19214,24 @@
         <v>428</v>
       </c>
       <c r="B427" s="16" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="D427" s="20" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="G427" s="3"/>
       <c r="H427" s="7"/>
       <c r="I427" s="8" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="J427" s="1" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="K427" s="8" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1">
@@ -19233,47 +19239,47 @@
         <v>450</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="D428" s="23" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="G428" s="3"/>
       <c r="H428" s="7"/>
       <c r="I428" s="8" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="J428" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="K428" s="24" t="s">
         <v>2110</v>
-      </c>
-      <c r="K428" s="24" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="5"/>
       <c r="B429" s="1" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="D429" s="23" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="G429" s="3"/>
       <c r="H429" s="7"/>
       <c r="I429" s="8" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="J429" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="K429" s="24" t="s">
         <v>2115</v>
-      </c>
-      <c r="K429" s="24" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1">
@@ -19281,24 +19287,24 @@
         <v>428</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="G430" s="3"/>
       <c r="H430" s="7"/>
       <c r="I430" s="8" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="J430" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K430" s="9" t="s">
         <v>2120</v>
-      </c>
-      <c r="K430" s="9" t="s">
-        <v>2118</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1">
@@ -19306,47 +19312,47 @@
         <v>450</v>
       </c>
       <c r="B431" s="16" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="D431" s="25" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="G431" s="3"/>
       <c r="H431" s="7"/>
       <c r="I431" s="1" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="J431" s="1" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="K431" s="15" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="5"/>
       <c r="B432" s="1" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="D432" s="25" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="G432" s="3"/>
       <c r="H432" s="7"/>
       <c r="I432" s="1" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="J432" s="1" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="K432" s="15" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1">
@@ -19354,208 +19360,208 @@
         <v>450</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="D433" s="25" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="G433" s="3"/>
       <c r="H433" s="7"/>
       <c r="I433" s="1" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="J433" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="K433" s="15" t="s">
         <v>2133</v>
-      </c>
-      <c r="K433" s="15" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="5"/>
       <c r="B434" s="1" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="D434" s="25" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="G434" s="3"/>
       <c r="H434" s="7"/>
       <c r="I434" s="1" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="J434" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="K434" s="15" t="s">
         <v>2138</v>
-      </c>
-      <c r="K434" s="15" t="s">
-        <v>2136</v>
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="5"/>
       <c r="B435" s="1" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="D435" s="25" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="G435" s="3"/>
       <c r="H435" s="7"/>
       <c r="I435" s="1" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="J435" s="1" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="K435" s="15" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="5"/>
       <c r="B436" s="16" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="D436" s="25" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="G436" s="3"/>
       <c r="H436" s="7"/>
       <c r="I436" s="1" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="J436" s="1" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="K436" s="15" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="5"/>
       <c r="B437" s="16" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="G437" s="3"/>
       <c r="H437" s="7"/>
       <c r="I437" s="8" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="J437" s="1" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="K437" s="9" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="5"/>
       <c r="B438" s="1" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="G438" s="3"/>
       <c r="H438" s="7"/>
       <c r="I438" s="8" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="J438" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="K438" s="9" t="s">
         <v>2159</v>
-      </c>
-      <c r="K438" s="9" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="5"/>
       <c r="B439" s="16" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="G439" s="3"/>
       <c r="H439" s="7"/>
       <c r="I439" s="8" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="J439" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="K439" s="9" t="s">
         <v>2164</v>
-      </c>
-      <c r="K439" s="9" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="5"/>
       <c r="B440" s="16" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="D440" s="29" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="G440" s="3"/>
       <c r="H440" s="7"/>
       <c r="I440" s="27" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="J440" s="1" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="K440" s="27" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="5"/>
       <c r="B441" s="16" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="D441" s="26" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="G441" s="3"/>
       <c r="H441" s="7"/>
       <c r="I441" s="27" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="J441" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="K441" s="28" t="s">
         <v>2173</v>
-      </c>
-      <c r="K441" s="28" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="442" ht="15.75" customHeight="1">
@@ -19563,93 +19569,93 @@
         <v>450</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="G442" s="3"/>
       <c r="H442" s="7"/>
       <c r="I442" s="8" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="J442" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="K442" s="9" t="s">
         <v>2178</v>
-      </c>
-      <c r="K442" s="9" t="s">
-        <v>2176</v>
       </c>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="5"/>
       <c r="B443" s="1" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="G443" s="3"/>
       <c r="H443" s="7"/>
       <c r="I443" s="8" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="J443" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="K443" s="9" t="s">
         <v>2183</v>
-      </c>
-      <c r="K443" s="9" t="s">
-        <v>2181</v>
       </c>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="5"/>
       <c r="B444" s="16" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="D444" s="20" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="G444" s="3"/>
       <c r="H444" s="7"/>
       <c r="I444" s="8" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="J444" s="1" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="K444" s="8" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="5"/>
       <c r="B445" s="1" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="D445" s="20" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="G445" s="3"/>
       <c r="H445" s="7"/>
       <c r="I445" s="8" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="J445" s="1" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="K445" s="8" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="446" ht="15.75" customHeight="1">
@@ -19657,93 +19663,93 @@
         <v>428</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="D446" s="20" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="G446" s="3"/>
       <c r="H446" s="7"/>
       <c r="I446" s="8" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="J446" s="1" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="K446" s="8" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="5"/>
       <c r="B447" s="16" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="D447" s="25" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="G447" s="3"/>
       <c r="H447" s="7"/>
       <c r="I447" s="1" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="J447" s="1" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="K447" s="1" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="5"/>
       <c r="B448" s="16" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="D448" s="25" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="G448" s="3"/>
       <c r="H448" s="7"/>
       <c r="I448" s="1" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="J448" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="K448" s="15" t="s">
         <v>2203</v>
-      </c>
-      <c r="K448" s="15" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="5"/>
       <c r="B449" s="16" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="G449" s="3"/>
       <c r="H449" s="7"/>
       <c r="I449" s="1" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="J449" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="K449" s="15" t="s">
         <v>2208</v>
-      </c>
-      <c r="K449" s="15" t="s">
-        <v>2206</v>
       </c>
     </row>
     <row r="450" ht="15.75" customHeight="1">
@@ -19751,70 +19757,70 @@
         <v>450</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="G450" s="3"/>
       <c r="H450" s="7"/>
       <c r="I450" s="8" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J450" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="K450" s="9" t="s">
         <v>2213</v>
-      </c>
-      <c r="K450" s="9" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="5"/>
       <c r="B451" s="1" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="G451" s="3"/>
       <c r="H451" s="7"/>
       <c r="I451" s="8" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="J451" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="K451" s="9" t="s">
         <v>2218</v>
-      </c>
-      <c r="K451" s="9" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="5"/>
       <c r="B452" s="1" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="D452" s="20" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="G452" s="3"/>
       <c r="H452" s="7"/>
       <c r="I452" s="8" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="J452" s="1" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="K452" s="8" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="453" ht="15.75" customHeight="1">
@@ -19822,24 +19828,24 @@
         <v>428</v>
       </c>
       <c r="B453" s="16" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="D453" s="20" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="G453" s="3"/>
       <c r="H453" s="7"/>
       <c r="I453" s="8" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="J453" s="1" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="K453" s="8" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="454" ht="15.75" customHeight="1">
@@ -19847,70 +19853,70 @@
         <v>450</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="D454" s="20" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="G454" s="3"/>
       <c r="H454" s="7"/>
       <c r="I454" s="8" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="J454" s="1" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="K454" s="8" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="5"/>
       <c r="B455" s="1" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="G455" s="3"/>
       <c r="H455" s="7"/>
       <c r="I455" s="8" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="J455" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="K455" s="9" t="s">
         <v>2235</v>
-      </c>
-      <c r="K455" s="9" t="s">
-        <v>2233</v>
       </c>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="5"/>
       <c r="B456" s="1" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="G456" s="3"/>
       <c r="H456" s="7"/>
       <c r="I456" s="8" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="J456" s="1" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="K456" s="8" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="457" ht="15.75" customHeight="1">
@@ -19918,24 +19924,24 @@
         <v>428</v>
       </c>
       <c r="B457" s="16" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="D457" s="20" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="G457" s="3"/>
       <c r="H457" s="7"/>
       <c r="I457" s="8" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="J457" s="1" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="K457" s="8" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="458" ht="15.75" customHeight="1">
@@ -19943,47 +19949,47 @@
         <v>450</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="D458" s="20" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="G458" s="3"/>
       <c r="H458" s="7"/>
       <c r="I458" s="8" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="J458" s="1" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="K458" s="8" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="5"/>
       <c r="B459" s="15" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="G459" s="3"/>
       <c r="H459" s="7"/>
       <c r="I459" s="8" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="J459" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="K459" s="9" t="s">
         <v>2253</v>
-      </c>
-      <c r="K459" s="9" t="s">
-        <v>2251</v>
       </c>
     </row>
     <row r="460" ht="15.75" customHeight="1">
@@ -19991,24 +19997,24 @@
         <v>450</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="G460" s="3"/>
       <c r="H460" s="7"/>
       <c r="I460" s="8" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="J460" s="1" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="K460" s="9" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="461" ht="15.75" customHeight="1">
@@ -20016,93 +20022,93 @@
         <v>450</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="G461" s="3"/>
       <c r="H461" s="7"/>
       <c r="I461" s="8" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="J461" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="K461" s="9" t="s">
         <v>2264</v>
-      </c>
-      <c r="K461" s="9" t="s">
-        <v>2262</v>
       </c>
     </row>
     <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="5"/>
       <c r="B462" s="1" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="G462" s="3"/>
       <c r="H462" s="7"/>
       <c r="I462" s="8" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="J462" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="K462" s="9" t="s">
         <v>2269</v>
-      </c>
-      <c r="K462" s="9" t="s">
-        <v>2267</v>
       </c>
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="5"/>
       <c r="B463" s="1" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="D463" s="20" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="G463" s="3"/>
       <c r="H463" s="7"/>
       <c r="I463" s="8" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="J463" s="1" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="K463" s="8" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="5"/>
       <c r="B464" s="1" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="G464" s="3"/>
       <c r="H464" s="7"/>
       <c r="I464" s="8" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="J464" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="K464" s="9" t="s">
         <v>2278</v>
-      </c>
-      <c r="K464" s="9" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="465" ht="15.75" customHeight="1">
@@ -20110,24 +20116,24 @@
         <v>450</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="D465" s="6" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="G465" s="3"/>
       <c r="H465" s="7"/>
       <c r="I465" s="8" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="J465" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="K465" s="9" t="s">
         <v>2283</v>
-      </c>
-      <c r="K465" s="9" t="s">
-        <v>2281</v>
       </c>
     </row>
     <row r="466" ht="15.75" customHeight="1">
@@ -20135,47 +20141,47 @@
         <v>450</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="G466" s="3"/>
       <c r="H466" s="7"/>
       <c r="I466" s="8" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="J466" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="K466" s="9" t="s">
         <v>2288</v>
-      </c>
-      <c r="K466" s="9" t="s">
-        <v>2286</v>
       </c>
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="5"/>
       <c r="B467" s="1" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="D467" s="20" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="G467" s="3"/>
       <c r="H467" s="7"/>
       <c r="I467" s="8" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="J467" s="1" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="K467" s="8" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="468" ht="15.75" customHeight="1">
@@ -20183,70 +20189,70 @@
         <v>450</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="G468" s="3"/>
       <c r="H468" s="7"/>
       <c r="I468" s="8" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="J468" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="K468" s="9" t="s">
         <v>2297</v>
-      </c>
-      <c r="K468" s="9" t="s">
-        <v>2295</v>
       </c>
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="5"/>
       <c r="B469" s="1" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="D469" s="20" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="G469" s="3"/>
       <c r="H469" s="7"/>
       <c r="I469" s="8" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="J469" s="1" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="K469" s="8" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="5"/>
       <c r="B470" s="1" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="D470" s="20" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="G470" s="3"/>
       <c r="H470" s="7"/>
       <c r="I470" s="8" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="J470" s="1" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="K470" s="8" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="471" ht="15.75" customHeight="1">
@@ -20254,47 +20260,47 @@
         <v>450</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="D471" s="6" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="G471" s="3"/>
       <c r="H471" s="7"/>
       <c r="I471" s="8" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="J471" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="K471" s="9" t="s">
         <v>2310</v>
-      </c>
-      <c r="K471" s="9" t="s">
-        <v>2308</v>
       </c>
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="5"/>
       <c r="B472" s="15" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="G472" s="3"/>
       <c r="H472" s="7"/>
       <c r="I472" s="8" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="J472" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="K472" s="9" t="s">
         <v>2315</v>
-      </c>
-      <c r="K472" s="9" t="s">
-        <v>2313</v>
       </c>
     </row>
     <row r="473" ht="15.75" customHeight="1">
@@ -20302,70 +20308,70 @@
         <v>450</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="D473" s="6" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="G473" s="3"/>
       <c r="H473" s="7"/>
       <c r="I473" s="8" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="J473" s="1" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="K473" s="9" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="5"/>
       <c r="B474" s="1" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="G474" s="3"/>
       <c r="H474" s="7"/>
       <c r="I474" s="8" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="J474" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="K474" s="9" t="s">
         <v>2326</v>
-      </c>
-      <c r="K474" s="9" t="s">
-        <v>2324</v>
       </c>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="5"/>
       <c r="B475" s="1" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="D475" s="20" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="G475" s="3"/>
       <c r="H475" s="7"/>
       <c r="I475" s="8" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="J475" s="1" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="K475" s="8" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="476" ht="15.75" customHeight="1">
@@ -20373,24 +20379,24 @@
         <v>428</v>
       </c>
       <c r="B476" s="16" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="G476" s="3"/>
       <c r="H476" s="7"/>
       <c r="I476" s="8" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="J476" s="1" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="K476" s="8" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="477" ht="15.75" customHeight="1">
@@ -20398,70 +20404,70 @@
         <v>450</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="D477" s="20" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="G477" s="3"/>
       <c r="H477" s="7"/>
       <c r="I477" s="8" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="J477" s="1" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="K477" s="8" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="5"/>
       <c r="B478" s="1" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="D478" s="20" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="G478" s="3"/>
       <c r="H478" s="7"/>
       <c r="I478" s="8" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="J478" s="1" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="K478" s="8" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="5"/>
       <c r="B479" s="1" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="D479" s="20" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="G479" s="3"/>
       <c r="H479" s="7"/>
       <c r="I479" s="8" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="J479" s="1" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="K479" s="8" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="480" ht="15.75" customHeight="1">
@@ -20469,47 +20475,47 @@
         <v>428</v>
       </c>
       <c r="B480" s="16" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="D480" s="20" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="G480" s="3"/>
       <c r="H480" s="7"/>
       <c r="I480" s="8" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="J480" s="1" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="K480" s="8" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="5"/>
       <c r="B481" s="16" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="D481" s="20" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="G481" s="3"/>
       <c r="H481" s="7"/>
       <c r="I481" s="8" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="J481" s="1" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="K481" s="8" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="482" ht="15.75" customHeight="1">
@@ -20517,47 +20523,47 @@
         <v>450</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="D482" s="25" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="G482" s="3"/>
       <c r="H482" s="7"/>
       <c r="I482" s="1" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="J482" s="1" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="K482" s="15" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="5"/>
       <c r="B483" s="1" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="G483" s="3"/>
       <c r="H483" s="7"/>
       <c r="I483" s="1" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="J483" s="1" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c r="K483" s="1" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="484" ht="15.75" customHeight="1">
@@ -20565,70 +20571,70 @@
         <v>450</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c r="D484" s="25" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="G484" s="3"/>
       <c r="H484" s="7"/>
       <c r="I484" s="1" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="J484" s="1" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
       <c r="K484" s="15" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="5"/>
       <c r="B485" s="16" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="D485" s="6" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="G485" s="3"/>
       <c r="H485" s="7"/>
       <c r="I485" s="8" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="J485" s="1" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="K485" s="9" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="5"/>
       <c r="B486" s="16" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="G486" s="3"/>
       <c r="H486" s="7"/>
       <c r="I486" s="8" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c r="J486" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="K486" s="9" t="s">
         <v>2378</v>
-      </c>
-      <c r="K486" s="9" t="s">
-        <v>2376</v>
       </c>
     </row>
     <row r="487" ht="15.75" customHeight="1">
@@ -20636,783 +20642,783 @@
         <v>450</v>
       </c>
       <c r="B487" s="15" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="D487" s="23" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c r="G487" s="3"/>
       <c r="H487" s="7"/>
       <c r="I487" s="8" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="J487" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="K487" s="24" t="s">
         <v>2383</v>
-      </c>
-      <c r="K487" s="24" t="s">
-        <v>2381</v>
       </c>
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="5"/>
       <c r="B488" s="1" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="D488" s="23" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="G488" s="3"/>
       <c r="H488" s="7"/>
       <c r="I488" s="8" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c r="J488" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="K488" s="24" t="s">
         <v>2388</v>
-      </c>
-      <c r="K488" s="24" t="s">
-        <v>2386</v>
       </c>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="5"/>
       <c r="B489" s="1" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="G489" s="3"/>
       <c r="H489" s="7"/>
       <c r="I489" s="8" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="J489" s="1" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="K489" s="9" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="5"/>
       <c r="B490" s="16" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="D490" s="11" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="G490" s="3"/>
       <c r="H490" s="7"/>
       <c r="I490" s="8" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c r="J490" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="K490" s="14" t="s">
         <v>2399</v>
-      </c>
-      <c r="K490" s="14" t="s">
-        <v>2397</v>
       </c>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="5"/>
       <c r="B491" s="16" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="D491" s="6" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="G491" s="3"/>
       <c r="H491" s="7"/>
       <c r="I491" s="8" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c r="J491" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="K491" s="9" t="s">
         <v>2404</v>
-      </c>
-      <c r="K491" s="9" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="5"/>
       <c r="B492" s="15" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="D492" s="6" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="G492" s="3"/>
       <c r="H492" s="7"/>
       <c r="I492" s="8" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="J492" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="K492" s="9" t="s">
         <v>2409</v>
-      </c>
-      <c r="K492" s="9" t="s">
-        <v>2407</v>
       </c>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="5"/>
       <c r="B493" s="15" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="D493" s="6" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="G493" s="3"/>
       <c r="H493" s="7"/>
       <c r="I493" s="8" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
       <c r="J493" s="1" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="K493" s="9" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="5"/>
       <c r="B494" s="1" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="D494" s="6" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="G494" s="3"/>
       <c r="H494" s="7"/>
       <c r="I494" s="8" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
       <c r="J494" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="K494" s="9" t="s">
         <v>2420</v>
-      </c>
-      <c r="K494" s="9" t="s">
-        <v>2418</v>
       </c>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="5"/>
       <c r="B495" s="16" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="D495" s="25" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="G495" s="3"/>
       <c r="H495" s="7"/>
       <c r="I495" s="1" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="J495" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="K495" s="15" t="s">
         <v>2425</v>
-      </c>
-      <c r="K495" s="15" t="s">
-        <v>2423</v>
       </c>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="5"/>
       <c r="B496" s="16" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="D496" s="20" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="G496" s="3"/>
       <c r="H496" s="7"/>
       <c r="I496" s="8" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="J496" s="1" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="K496" s="8" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="5"/>
       <c r="B497" s="16" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="D497" s="25" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="G497" s="3"/>
       <c r="H497" s="7"/>
       <c r="I497" s="1" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="J497" s="1" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="K497" s="1" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="5"/>
       <c r="B498" s="15" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="D498" s="22" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="G498" s="3"/>
       <c r="H498" s="7"/>
       <c r="I498" s="1" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="J498" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="K498" s="16" t="s">
         <v>2438</v>
-      </c>
-      <c r="K498" s="16" t="s">
-        <v>2436</v>
       </c>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="5"/>
       <c r="B499" s="16" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="D499" s="6" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="G499" s="3"/>
       <c r="H499" s="7"/>
       <c r="I499" s="8" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="J499" s="1" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="K499" s="9" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="5"/>
       <c r="B500" s="16" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="D500" s="22" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="G500" s="3"/>
       <c r="H500" s="7"/>
       <c r="I500" s="1" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="J500" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="K500" s="16" t="s">
         <v>2449</v>
-      </c>
-      <c r="K500" s="16" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="5"/>
       <c r="B501" s="1" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="D501" s="20" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="G501" s="3"/>
       <c r="H501" s="7"/>
       <c r="I501" s="8" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="J501" s="1" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="K501" s="8" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="5"/>
       <c r="B502" s="15" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="D502" s="31" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="G502" s="3"/>
       <c r="H502" s="7"/>
       <c r="I502" s="8" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="J502" s="1" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="K502" s="32" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="5"/>
       <c r="B503" s="15" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="D503" s="6" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="G503" s="3"/>
       <c r="H503" s="7"/>
       <c r="I503" s="8" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="J503" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="K503" s="9" t="s">
         <v>2462</v>
-      </c>
-      <c r="K503" s="9" t="s">
-        <v>2460</v>
       </c>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="5"/>
       <c r="B504" s="16" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="D504" s="6" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="G504" s="3"/>
       <c r="H504" s="7"/>
       <c r="I504" s="8" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="J504" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="K504" s="9" t="s">
         <v>2467</v>
-      </c>
-      <c r="K504" s="9" t="s">
-        <v>2465</v>
       </c>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="5"/>
       <c r="B505" s="1" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="D505" s="6" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="G505" s="3"/>
       <c r="H505" s="7"/>
       <c r="I505" s="8" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="J505" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="K505" s="9" t="s">
         <v>2472</v>
-      </c>
-      <c r="K505" s="9" t="s">
-        <v>2470</v>
       </c>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="5"/>
       <c r="B506" s="1" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="D506" s="6" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="G506" s="3"/>
       <c r="H506" s="7"/>
       <c r="I506" s="8" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="J506" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="K506" s="9" t="s">
         <v>2477</v>
-      </c>
-      <c r="K506" s="9" t="s">
-        <v>2475</v>
       </c>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="5"/>
       <c r="B507" s="1" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="D507" s="20" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="G507" s="3"/>
       <c r="H507" s="7"/>
       <c r="I507" s="8" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="J507" s="1" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="K507" s="8" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="5"/>
       <c r="B508" s="15" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="D508" s="29" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="G508" s="3"/>
       <c r="H508" s="7"/>
       <c r="I508" s="27" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="J508" s="1" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="K508" s="27" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="5"/>
       <c r="B509" s="15" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="C509" s="15" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="D509" s="26" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="G509" s="3"/>
       <c r="H509" s="7"/>
       <c r="I509" s="27" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="J509" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="K509" s="28" t="s">
         <v>2489</v>
-      </c>
-      <c r="K509" s="28" t="s">
-        <v>2487</v>
       </c>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="5"/>
       <c r="B510" s="16" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="D510" s="29" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="G510" s="3"/>
       <c r="H510" s="7"/>
       <c r="I510" s="27" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="J510" s="1" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="K510" s="27" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="5"/>
       <c r="B511" s="16" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="D511" s="6" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="G511" s="3"/>
       <c r="H511" s="7"/>
       <c r="I511" s="8" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="J511" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="K511" s="9" t="s">
         <v>2498</v>
-      </c>
-      <c r="K511" s="9" t="s">
-        <v>2496</v>
       </c>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="5"/>
       <c r="B512" s="16" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="D512" s="29" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="G512" s="3"/>
       <c r="H512" s="7"/>
       <c r="I512" s="27" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="J512" s="1" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="K512" s="27" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="5"/>
       <c r="B513" s="1" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="D513" s="6" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="G513" s="3"/>
       <c r="H513" s="7"/>
       <c r="I513" s="8" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="J513" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="K513" s="9" t="s">
         <v>2507</v>
-      </c>
-      <c r="K513" s="9" t="s">
-        <v>2505</v>
       </c>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="5"/>
       <c r="B514" s="16" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="D514" s="26" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="G514" s="3"/>
       <c r="H514" s="7"/>
       <c r="I514" s="27" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="J514" s="1" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="K514" s="28" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="5"/>
       <c r="B515" s="16" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="D515" s="6" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="G515" s="3"/>
       <c r="H515" s="7"/>
       <c r="I515" s="8" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="J515" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="K515" s="9" t="s">
         <v>2518</v>
-      </c>
-      <c r="K515" s="9" t="s">
-        <v>2516</v>
       </c>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="5"/>
       <c r="B516" s="1" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="D516" s="20" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="G516" s="3"/>
       <c r="H516" s="7"/>
       <c r="I516" s="8" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="J516" s="1" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="K516" s="8" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="5"/>
       <c r="B517" s="1" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="D517" s="6" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="G517" s="3"/>
       <c r="H517" s="7"/>
       <c r="I517" s="8" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="J517" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="K517" s="9" t="s">
         <v>2527</v>
-      </c>
-      <c r="K517" s="9" t="s">
-        <v>2525</v>
       </c>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="5"/>
       <c r="B518" s="1" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="D518" s="6" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="G518" s="3"/>
       <c r="H518" s="7"/>
       <c r="I518" s="8" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="J518" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="K518" s="9" t="s">
         <v>2532</v>
-      </c>
-      <c r="K518" s="9" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="5"/>
       <c r="B519" s="16" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="D519" s="6" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="G519" s="3"/>
       <c r="H519" s="7"/>
       <c r="I519" s="8" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="J519" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="K519" s="9" t="s">
         <v>2537</v>
-      </c>
-      <c r="K519" s="9" t="s">
-        <v>2535</v>
       </c>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="5"/>
       <c r="B520" s="16" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="D520" s="6" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="G520" s="3"/>
       <c r="H520" s="7"/>
       <c r="I520" s="8" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="J520" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="K520" s="9" t="s">
         <v>2542</v>
-      </c>
-      <c r="K520" s="9" t="s">
-        <v>2540</v>
       </c>
     </row>
     <row r="521" ht="15.75" customHeight="1">
@@ -21420,1513 +21426,1513 @@
         <v>450</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="D521" s="20" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="G521" s="3"/>
       <c r="H521" s="7"/>
       <c r="I521" s="8" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="J521" s="1" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="K521" s="8" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="5"/>
       <c r="B522" s="1" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="D522" s="20" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="G522" s="3"/>
       <c r="H522" s="7"/>
       <c r="I522" s="8" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="J522" s="1" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="K522" s="8" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="5"/>
       <c r="B523" s="16" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="D523" s="20" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="G523" s="3"/>
       <c r="H523" s="7"/>
       <c r="I523" s="8" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="J523" s="1" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="K523" s="8" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="5"/>
       <c r="B524" s="16" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="D524" s="6" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="G524" s="3"/>
       <c r="H524" s="7"/>
       <c r="I524" s="8" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="J524" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="K524" s="9" t="s">
         <v>2559</v>
-      </c>
-      <c r="K524" s="9" t="s">
-        <v>2557</v>
       </c>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="5"/>
       <c r="B525" s="16" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="D525" s="20" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="G525" s="3"/>
       <c r="H525" s="7"/>
       <c r="I525" s="8" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="J525" s="1" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="K525" s="8" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="5"/>
       <c r="B526" s="16" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="D526" s="6" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="G526" s="3"/>
       <c r="H526" s="7"/>
       <c r="I526" s="8" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="J526" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="K526" s="9" t="s">
         <v>2568</v>
-      </c>
-      <c r="K526" s="9" t="s">
-        <v>2566</v>
       </c>
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="5"/>
       <c r="B527" s="1" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="D527" s="6" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="G527" s="3"/>
       <c r="H527" s="7"/>
       <c r="I527" s="8" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="J527" s="1" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="K527" s="9" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="5"/>
       <c r="B528" s="16" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="D528" s="6" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="G528" s="3"/>
       <c r="H528" s="7"/>
       <c r="I528" s="8" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="J528" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="K528" s="9" t="s">
         <v>2579</v>
-      </c>
-      <c r="K528" s="9" t="s">
-        <v>2577</v>
       </c>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="5"/>
       <c r="B529" s="1" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="D529" s="20" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="G529" s="3"/>
       <c r="H529" s="7"/>
       <c r="I529" s="8" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="J529" s="1" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="K529" s="8" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="5"/>
       <c r="B530" s="1" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="D530" s="6" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="G530" s="3"/>
       <c r="H530" s="7"/>
       <c r="I530" s="8" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="J530" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="K530" s="9" t="s">
         <v>2588</v>
-      </c>
-      <c r="K530" s="9" t="s">
-        <v>2586</v>
       </c>
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="5"/>
       <c r="B531" s="16" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="D531" s="6" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="G531" s="3"/>
       <c r="H531" s="7"/>
       <c r="I531" s="8" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="J531" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="K531" s="9" t="s">
         <v>2593</v>
-      </c>
-      <c r="K531" s="9" t="s">
-        <v>2591</v>
       </c>
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="5"/>
       <c r="B532" s="1" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="D532" s="36" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="G532" s="3"/>
       <c r="H532" s="7"/>
       <c r="I532" s="8" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="J532" s="1" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="K532" s="8" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="5"/>
       <c r="B533" s="15" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="D533" s="37" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="G533" s="3"/>
       <c r="H533" s="7"/>
       <c r="I533" s="8" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="J533" s="1" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="K533" s="8" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="R533" s="38" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="5"/>
       <c r="B534" s="15" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="D534" s="39" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="G534" s="3"/>
       <c r="H534" s="7"/>
       <c r="I534" s="8" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="J534" s="1" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="K534" s="9" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="R534" s="40"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="5"/>
       <c r="B535" s="15" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="D535" s="41" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="G535" s="3"/>
       <c r="H535" s="7"/>
       <c r="I535" s="8" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="J535" s="15" t="s">
+        <v>2616</v>
+      </c>
+      <c r="K535" s="9" t="s">
         <v>2614</v>
-      </c>
-      <c r="K535" s="9" t="s">
-        <v>2612</v>
       </c>
       <c r="R535" s="40"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="5"/>
       <c r="B536" s="16" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="C536" s="15" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="D536" s="26" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="G536" s="3"/>
       <c r="H536" s="7"/>
       <c r="I536" s="27" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="J536" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="K536" s="28" t="s">
         <v>2619</v>
-      </c>
-      <c r="K536" s="28" t="s">
-        <v>2617</v>
       </c>
       <c r="R536" s="40"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="5"/>
       <c r="B537" s="16" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="D537" s="41" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="G537" s="3"/>
       <c r="H537" s="7"/>
       <c r="I537" s="8" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="J537" s="1" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="K537" s="9" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="R537" s="40"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="5"/>
       <c r="B538" s="1" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="D538" s="39" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="G538" s="3"/>
       <c r="H538" s="7"/>
       <c r="I538" s="8" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="J538" s="1" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="K538" s="24" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="R538" s="40"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="5"/>
       <c r="B539" s="15" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="D539" s="41" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="G539" s="3"/>
       <c r="H539" s="35"/>
       <c r="I539" s="8" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="J539" s="15" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="K539" s="14" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="R539" s="40"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="5"/>
       <c r="B540" s="15" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="D540" s="41" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="G540" s="3"/>
       <c r="H540" s="7"/>
       <c r="I540" s="8" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="J540" s="1" t="s">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="K540" s="14" t="s">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c r="R540" s="40"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="5"/>
       <c r="B541" s="1" t="s">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="D541" s="6" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="G541" s="3"/>
       <c r="H541" s="7"/>
       <c r="I541" s="8" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="J541" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="K541" s="9" t="s">
         <v>2648</v>
-      </c>
-      <c r="K541" s="9" t="s">
-        <v>2646</v>
       </c>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="5"/>
       <c r="B542" s="16" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="D542" s="26" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="G542" s="3"/>
       <c r="H542" s="7"/>
       <c r="I542" s="27" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="J542" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="K542" s="28" t="s">
         <v>2653</v>
-      </c>
-      <c r="K542" s="28" t="s">
-        <v>2651</v>
       </c>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="5"/>
       <c r="B543" s="1" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="D543" s="26" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="G543" s="3"/>
       <c r="H543" s="7"/>
       <c r="I543" s="27" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="J543" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="K543" s="28" t="s">
         <v>2658</v>
-      </c>
-      <c r="K543" s="28" t="s">
-        <v>2656</v>
       </c>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="5"/>
       <c r="B544" s="1" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
       <c r="D544" s="6" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="G544" s="3"/>
       <c r="H544" s="7"/>
       <c r="I544" s="8" t="s">
-        <v>2662</v>
+        <v>2664</v>
       </c>
       <c r="J544" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="K544" s="9" t="s">
         <v>2663</v>
-      </c>
-      <c r="K544" s="9" t="s">
-        <v>2661</v>
       </c>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="5"/>
       <c r="B545" s="16" t="s">
-        <v>2664</v>
+        <v>2666</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c r="D545" s="26" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="G545" s="3"/>
       <c r="H545" s="7"/>
       <c r="I545" s="27" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="J545" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="K545" s="28" t="s">
         <v>2668</v>
-      </c>
-      <c r="K545" s="28" t="s">
-        <v>2666</v>
       </c>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="5"/>
       <c r="B546" s="1" t="s">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>2670</v>
+        <v>2672</v>
       </c>
       <c r="D546" s="22" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="G546" s="3"/>
       <c r="H546" s="7"/>
       <c r="I546" s="8" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="J546" s="1" t="s">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="K546" s="16" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="5"/>
       <c r="B547" s="15" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>2674</v>
+        <v>2676</v>
       </c>
       <c r="D547" s="18" t="s">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="G547" s="3"/>
       <c r="H547" s="7"/>
       <c r="I547" s="8" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="J547" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K547" s="19" t="s">
         <v>2677</v>
-      </c>
-      <c r="K547" s="19" t="s">
-        <v>2675</v>
       </c>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="5"/>
       <c r="B548" s="1" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c r="D548" s="42" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="G548" s="3"/>
       <c r="H548" s="7"/>
       <c r="I548" s="27" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="J548" s="1" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="K548" s="43" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="5"/>
       <c r="B549" s="16" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="D549" s="6" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="G549" s="3"/>
       <c r="H549" s="7"/>
       <c r="I549" s="8" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="J549" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="K549" s="9" t="s">
         <v>2686</v>
-      </c>
-      <c r="K549" s="9" t="s">
-        <v>2684</v>
       </c>
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="5"/>
       <c r="B550" s="16" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="D550" s="26" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="G550" s="3"/>
       <c r="H550" s="7"/>
       <c r="I550" s="27" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="J550" s="1" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="K550" s="28" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="5"/>
       <c r="B551" s="1" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c r="D551" s="6" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="G551" s="3"/>
       <c r="H551" s="7"/>
       <c r="I551" s="8" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="J551" s="1" t="s">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c r="K551" s="9" t="s">
-        <v>2698</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="5"/>
       <c r="B552" s="16" t="s">
-        <v>2699</v>
+        <v>2701</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="D552" s="6" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c r="G552" s="3"/>
       <c r="H552" s="7"/>
       <c r="I552" s="8" t="s">
-        <v>2702</v>
+        <v>2704</v>
       </c>
       <c r="J552" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="K552" s="9" t="s">
         <v>2703</v>
-      </c>
-      <c r="K552" s="9" t="s">
-        <v>2701</v>
       </c>
     </row>
     <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="5"/>
       <c r="B553" s="16" t="s">
-        <v>2704</v>
+        <v>2706</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c r="D553" s="6" t="s">
-        <v>2706</v>
+        <v>2708</v>
       </c>
       <c r="G553" s="3"/>
       <c r="H553" s="7"/>
       <c r="I553" s="8" t="s">
-        <v>2707</v>
+        <v>2709</v>
       </c>
       <c r="J553" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="K553" s="9" t="s">
         <v>2708</v>
-      </c>
-      <c r="K553" s="9" t="s">
-        <v>2706</v>
       </c>
     </row>
     <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="5"/>
       <c r="B554" s="1" t="s">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>2710</v>
+        <v>2712</v>
       </c>
       <c r="D554" s="6" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="G554" s="3"/>
       <c r="H554" s="7"/>
       <c r="I554" s="8" t="s">
-        <v>2712</v>
+        <v>2714</v>
       </c>
       <c r="J554" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="K554" s="9" t="s">
         <v>2713</v>
-      </c>
-      <c r="K554" s="9" t="s">
-        <v>2711</v>
       </c>
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="5"/>
       <c r="B555" s="16" t="s">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>2715</v>
+        <v>2717</v>
       </c>
       <c r="D555" s="26" t="s">
-        <v>2716</v>
+        <v>2718</v>
       </c>
       <c r="G555" s="3"/>
       <c r="H555" s="7"/>
       <c r="I555" s="27" t="s">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="J555" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="K555" s="28" t="s">
         <v>2718</v>
-      </c>
-      <c r="K555" s="28" t="s">
-        <v>2716</v>
       </c>
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="5"/>
       <c r="B556" s="16" t="s">
-        <v>2719</v>
+        <v>2721</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>2720</v>
+        <v>2722</v>
       </c>
       <c r="D556" s="26" t="s">
-        <v>2721</v>
+        <v>2723</v>
       </c>
       <c r="G556" s="3"/>
       <c r="H556" s="7"/>
       <c r="I556" s="27" t="s">
-        <v>2722</v>
+        <v>2724</v>
       </c>
       <c r="J556" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="K556" s="28" t="s">
         <v>2723</v>
-      </c>
-      <c r="K556" s="28" t="s">
-        <v>2721</v>
       </c>
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="5"/>
       <c r="B557" s="16" t="s">
-        <v>2724</v>
+        <v>2726</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="D557" s="6" t="s">
-        <v>2726</v>
+        <v>2728</v>
       </c>
       <c r="G557" s="3"/>
       <c r="H557" s="7"/>
       <c r="I557" s="8" t="s">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="J557" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="K557" s="9" t="s">
         <v>2728</v>
-      </c>
-      <c r="K557" s="9" t="s">
-        <v>2726</v>
       </c>
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="5"/>
       <c r="B558" s="1" t="s">
-        <v>2729</v>
+        <v>2731</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c r="D558" s="6" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="G558" s="3"/>
       <c r="H558" s="7"/>
       <c r="I558" s="8" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="J558" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="K558" s="9" t="s">
         <v>2733</v>
-      </c>
-      <c r="K558" s="9" t="s">
-        <v>2731</v>
       </c>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="5"/>
       <c r="B559" s="16" t="s">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="D559" s="6" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="G559" s="3"/>
       <c r="H559" s="7"/>
       <c r="I559" s="8" t="s">
-        <v>2737</v>
+        <v>2739</v>
       </c>
       <c r="J559" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="K559" s="9" t="s">
         <v>2738</v>
-      </c>
-      <c r="K559" s="9" t="s">
-        <v>2736</v>
       </c>
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="5"/>
       <c r="B560" s="1" t="s">
-        <v>2739</v>
+        <v>2741</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
       <c r="D560" s="20" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c r="G560" s="3"/>
       <c r="H560" s="7"/>
       <c r="I560" s="8" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c r="J560" s="1" t="s">
-        <v>2742</v>
+        <v>2744</v>
       </c>
       <c r="K560" s="8" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="5"/>
       <c r="B561" s="16" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>2744</v>
+        <v>2746</v>
       </c>
       <c r="D561" s="6" t="s">
-        <v>2745</v>
+        <v>2747</v>
       </c>
       <c r="G561" s="3"/>
       <c r="H561" s="7"/>
       <c r="I561" s="8" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
       <c r="J561" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="K561" s="9" t="s">
         <v>2747</v>
-      </c>
-      <c r="K561" s="9" t="s">
-        <v>2745</v>
       </c>
     </row>
     <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="5"/>
       <c r="B562" s="1" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="D562" s="6" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
       <c r="G562" s="3"/>
       <c r="H562" s="7"/>
       <c r="I562" s="8" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J562" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="K562" s="9" t="s">
         <v>2752</v>
-      </c>
-      <c r="K562" s="9" t="s">
-        <v>2750</v>
       </c>
     </row>
     <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="5"/>
       <c r="B563" s="16" t="s">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c r="D563" s="26" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="G563" s="3"/>
       <c r="H563" s="7"/>
       <c r="I563" s="27" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
       <c r="J563" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="K563" s="28" t="s">
         <v>2757</v>
-      </c>
-      <c r="K563" s="28" t="s">
-        <v>2755</v>
       </c>
     </row>
     <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="5"/>
       <c r="B564" s="16" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>2759</v>
+        <v>2761</v>
       </c>
       <c r="D564" s="26" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c r="G564" s="3"/>
       <c r="H564" s="7"/>
       <c r="I564" s="27" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="J564" s="1" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="K564" s="28" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="5"/>
       <c r="B565" s="1" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="D565" s="6" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="G565" s="3"/>
       <c r="H565" s="7"/>
       <c r="I565" s="8" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="J565" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="K565" s="9" t="s">
         <v>2768</v>
-      </c>
-      <c r="K565" s="9" t="s">
-        <v>2766</v>
       </c>
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="5"/>
       <c r="B566" s="16" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="D566" s="26" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="G566" s="3"/>
       <c r="H566" s="7"/>
       <c r="I566" s="27" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="J566" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="K566" s="28" t="s">
         <v>2773</v>
-      </c>
-      <c r="K566" s="28" t="s">
-        <v>2771</v>
       </c>
     </row>
     <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="5"/>
       <c r="B567" s="16" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="D567" s="6" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="G567" s="3"/>
       <c r="H567" s="7"/>
       <c r="I567" s="8" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="J567" s="1" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c r="K567" s="9" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="5"/>
       <c r="B568" s="16" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="D568" s="26" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="G568" s="3"/>
       <c r="H568" s="7"/>
       <c r="I568" s="27" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="J568" s="1" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="K568" s="28" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="5"/>
       <c r="B569" s="16" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="D569" s="6" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="G569" s="3"/>
       <c r="H569" s="7"/>
       <c r="I569" s="8" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="J569" s="1" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="K569" s="9" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="5"/>
       <c r="B570" s="16" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="D570" s="22" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="G570" s="3"/>
       <c r="H570" s="7"/>
       <c r="I570" s="1" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="J570" s="1" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="K570" s="1" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="5"/>
       <c r="B571" s="1" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c r="D571" s="22" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="G571" s="3"/>
       <c r="H571" s="7"/>
       <c r="I571" s="1" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="J571" s="1" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="K571" s="16" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="5"/>
       <c r="B572" s="16" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
       <c r="D572" s="22" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="G572" s="3"/>
       <c r="H572" s="7"/>
       <c r="I572" s="1" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="J572" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="K572" s="16" t="s">
         <v>2805</v>
-      </c>
-      <c r="K572" s="16" t="s">
-        <v>2803</v>
       </c>
     </row>
     <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="5"/>
       <c r="B573" s="16" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="D573" s="6" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="G573" s="3"/>
       <c r="H573" s="7"/>
       <c r="I573" s="8" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="J573" s="1" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="K573" s="9" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="5"/>
       <c r="B574" s="1" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="D574" s="6" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="G574" s="3"/>
       <c r="H574" s="7"/>
       <c r="I574" s="8" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="J574" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="K574" s="9" t="s">
         <v>2816</v>
-      </c>
-      <c r="K574" s="9" t="s">
-        <v>2814</v>
       </c>
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="5"/>
       <c r="B575" s="1" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="D575" s="20" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="G575" s="3"/>
       <c r="H575" s="7"/>
       <c r="I575" s="8" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="J575" s="1" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="K575" s="8" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="5"/>
       <c r="B576" s="16" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="D576" s="6" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="G576" s="3"/>
       <c r="H576" s="7"/>
       <c r="I576" s="8" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="J576" s="15" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="K576" s="9" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="R576" s="44" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="5"/>
       <c r="B577" s="16" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="D577" s="11" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="G577" s="3"/>
       <c r="H577" s="7"/>
       <c r="I577" s="8" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="J577" s="1" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="K577" s="14" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="5"/>
       <c r="B578" s="16" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="D578" s="11" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="G578" s="3"/>
       <c r="H578" s="7"/>
       <c r="I578" s="8" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="J578" s="1" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="K578" s="14" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="5"/>
       <c r="B579" s="16" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="D579" s="6" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="G579" s="3"/>
       <c r="H579" s="7"/>
       <c r="I579" s="8" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="J579" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="K579" s="9" t="s">
         <v>2844</v>
-      </c>
-      <c r="K579" s="9" t="s">
-        <v>2842</v>
       </c>
     </row>
     <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="5"/>
       <c r="B580" s="1" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="D580" s="39" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="G580" s="3"/>
       <c r="H580" s="7"/>
       <c r="I580" s="8" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="J580" s="1" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="K580" s="9" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="R580" s="45" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="5"/>
       <c r="B581" s="1" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="D581" s="39" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="G581" s="3"/>
       <c r="H581" s="7"/>
       <c r="I581" s="8" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="J581" s="1" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="K581" s="9" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="R581" s="46"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="5"/>
       <c r="B582" s="1" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="D582" s="23" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="G582" s="3"/>
       <c r="H582" s="7"/>
       <c r="I582" s="8" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="J582" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="K582" s="24" t="s">
         <v>2862</v>
-      </c>
-      <c r="K582" s="24" t="s">
-        <v>2860</v>
       </c>
     </row>
     <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="5"/>
       <c r="B583" s="15" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="D583" s="23" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="G583" s="3"/>
       <c r="H583" s="7"/>
       <c r="I583" s="8" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="J583" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K583" s="24" t="s">
         <v>2867</v>
-      </c>
-      <c r="K583" s="24" t="s">
-        <v>2865</v>
       </c>
     </row>
     <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="5"/>
       <c r="B584" s="16" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="D584" s="6" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="G584" s="3"/>
       <c r="H584" s="7"/>
       <c r="I584" s="8" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="J584" s="1" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="K584" s="9" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="5"/>
       <c r="B585" s="15" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="D585" s="23" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="G585" s="3"/>
       <c r="H585" s="7"/>
       <c r="I585" s="8" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="J585" s="15" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="K585" s="24" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="586" ht="15.75" customHeight="1">
